--- a/Output/8_WorkShop_Output_By_Province.xlsx
+++ b/Output/8_WorkShop_Output_By_Province.xlsx
@@ -496,7 +496,7 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Output_Value_peculate</t>
+          <t>Output_Value_speculate</t>
         </is>
       </c>
     </row>
